--- a/cp1/tostogan_fb-01_novak_fb-01_cp1/letters2.xlsx
+++ b/cp1/tostogan_fb-01_novak_fb-01_cp1/letters2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>quantity</t>
   </si>
@@ -28,94 +28,97 @@
     <t>о</t>
   </si>
   <si>
+    <t>е</t>
+  </si>
+  <si>
     <t>а</t>
   </si>
   <si>
-    <t>е</t>
+    <t>н</t>
   </si>
   <si>
     <t>и</t>
   </si>
   <si>
-    <t>н</t>
-  </si>
-  <si>
     <t>т</t>
   </si>
   <si>
     <t>с</t>
   </si>
   <si>
+    <t>в</t>
+  </si>
+  <si>
     <t>л</t>
   </si>
   <si>
     <t>р</t>
   </si>
   <si>
-    <t>в</t>
-  </si>
-  <si>
     <t>к</t>
   </si>
   <si>
     <t>м</t>
   </si>
   <si>
+    <t>д</t>
+  </si>
+  <si>
     <t>п</t>
   </si>
   <si>
-    <t>д</t>
-  </si>
-  <si>
     <t>у</t>
   </si>
   <si>
+    <t>я</t>
+  </si>
+  <si>
+    <t>ь</t>
+  </si>
+  <si>
+    <t>ч</t>
+  </si>
+  <si>
+    <t>г</t>
+  </si>
+  <si>
+    <t>з</t>
+  </si>
+  <si>
     <t>ы</t>
   </si>
   <si>
-    <t>я</t>
-  </si>
-  <si>
-    <t>г</t>
-  </si>
-  <si>
     <t>б</t>
   </si>
   <si>
-    <t>ь</t>
-  </si>
-  <si>
-    <t>з</t>
-  </si>
-  <si>
-    <t>ч</t>
+    <t>ж</t>
   </si>
   <si>
     <t>й</t>
   </si>
   <si>
-    <t>ж</t>
+    <t>ш</t>
   </si>
   <si>
     <t>х</t>
   </si>
   <si>
-    <t>ш</t>
-  </si>
-  <si>
     <t>ю</t>
   </si>
   <si>
+    <t>э</t>
+  </si>
+  <si>
+    <t>щ</t>
+  </si>
+  <si>
     <t>ц</t>
   </si>
   <si>
-    <t>щ</t>
-  </si>
-  <si>
     <t>ф</t>
   </si>
   <si>
-    <t>э</t>
+    <t>ё</t>
   </si>
   <si>
     <t>ъ</t>
@@ -476,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,10 +498,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>125265</v>
+        <v>205592</v>
       </c>
       <c r="C2">
-        <v>0.1478225775046288</v>
+        <v>0.166714104189017</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -506,10 +509,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>77418</v>
+        <v>115667</v>
       </c>
       <c r="C3">
-        <v>0.09135934463140827</v>
+        <v>0.09379411790940811</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -517,10 +520,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>60763</v>
+        <v>91838</v>
       </c>
       <c r="C4">
-        <v>0.07170513133687594</v>
+        <v>0.07447123380535696</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -528,10 +531,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>58343</v>
+        <v>81731</v>
       </c>
       <c r="C5">
-        <v>0.06884934051293308</v>
+        <v>0.06627548955928514</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -539,10 +542,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>52986</v>
+        <v>68872</v>
       </c>
       <c r="C6">
-        <v>0.06252765809811411</v>
+        <v>0.05584815451820101</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -550,10 +553,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>44964</v>
+        <v>65574</v>
       </c>
       <c r="C7">
-        <v>0.05306106554039941</v>
+        <v>0.05317381351458522</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -561,10 +564,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>41635</v>
+        <v>64769</v>
       </c>
       <c r="C8">
-        <v>0.04913258303919868</v>
+        <v>0.05252104077113139</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -572,10 +575,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>39339</v>
+        <v>54653</v>
       </c>
       <c r="C9">
-        <v>0.04642312199301157</v>
+        <v>0.04431799844469798</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -583,10 +586,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>35421</v>
+        <v>48418</v>
       </c>
       <c r="C10">
-        <v>0.04179957304747103</v>
+        <v>0.03926205054974818</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -594,10 +597,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>35329</v>
+        <v>47693</v>
       </c>
       <c r="C11">
-        <v>0.04169100579300709</v>
+        <v>0.03867414963173076</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -605,10 +608,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>34264</v>
+        <v>40108</v>
       </c>
       <c r="C12">
-        <v>0.04043422181470166</v>
+        <v>0.03252348968254162</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -616,10 +619,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>26293</v>
+        <v>33391</v>
       </c>
       <c r="C13">
-        <v>0.03102781327848327</v>
+        <v>0.02707668903933746</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -627,10 +630,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>22389</v>
+        <v>32127</v>
       </c>
       <c r="C14">
-        <v>0.02642078543688289</v>
+        <v>0.02605171419744227</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -638,10 +641,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>21930</v>
+        <v>31566</v>
       </c>
       <c r="C15">
-        <v>0.02587912924341604</v>
+        <v>0.02559680052156948</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -649,10 +652,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>21702</v>
+        <v>27828</v>
       </c>
       <c r="C16">
-        <v>0.02561007126496193</v>
+        <v>0.02256566447805346</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -660,10 +663,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>20236</v>
+        <v>26970</v>
       </c>
       <c r="C17">
-        <v>0.02388007566665605</v>
+        <v>0.02186991415024801</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -671,10 +674,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>14009</v>
+        <v>24528</v>
       </c>
       <c r="C18">
-        <v>0.0165317246498411</v>
+        <v>0.01988970167880175</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -682,10 +685,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>13175</v>
+        <v>23157</v>
       </c>
       <c r="C19">
-        <v>0.0155475388865484</v>
+        <v>0.01877796077038536</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -693,10 +696,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>12656</v>
+        <v>19631</v>
       </c>
       <c r="C20">
-        <v>0.01493507796190941</v>
+        <v>0.01591873506427582</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -704,10 +707,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>12090</v>
+        <v>19295</v>
       </c>
       <c r="C21">
-        <v>0.01426715333118559</v>
+        <v>0.01564627339744291</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -715,10 +718,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>11982</v>
+        <v>17831</v>
       </c>
       <c r="C22">
-        <v>0.01413970481507574</v>
+        <v>0.0144591189919567</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -726,10 +729,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>11914</v>
+        <v>17825</v>
       </c>
       <c r="C23">
-        <v>0.01405945945308065</v>
+        <v>0.01445425360504897</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -737,10 +740,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>10319</v>
+        <v>17200</v>
       </c>
       <c r="C24">
-        <v>0.01217723368275468</v>
+        <v>0.01394744246882706</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -748,10 +751,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>9125</v>
+        <v>12116</v>
       </c>
       <c r="C25">
-        <v>0.01076821953242916</v>
+        <v>0.009824837962343527</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -759,10 +762,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>7009</v>
+        <v>10105</v>
       </c>
       <c r="C26">
-        <v>0.008271172679758462</v>
+        <v>0.008194122450435899</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -770,10 +773,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>6773</v>
+        <v>8395</v>
       </c>
       <c r="C27">
-        <v>0.00799267407048139</v>
+        <v>0.006807487181732743</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -781,10 +784,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>6030</v>
+        <v>7477</v>
       </c>
       <c r="C28">
-        <v>0.007115875482799761</v>
+        <v>0.006063082984849996</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -792,10 +795,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>3995</v>
+        <v>6147</v>
       </c>
       <c r="C29">
-        <v>0.00471441501721145</v>
+        <v>0.004984588886969764</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -803,10 +806,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>3913</v>
+        <v>3674</v>
       </c>
       <c r="C30">
-        <v>0.004617648551276196</v>
+        <v>0.002979238583166897</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -814,10 +817,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>2384</v>
+        <v>3024</v>
       </c>
       <c r="C31">
-        <v>0.002813307985239574</v>
+        <v>0.002452155001496106</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -825,10 +828,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1795</v>
+        <v>2979</v>
       </c>
       <c r="C32">
-        <v>0.002118241540899763</v>
+        <v>0.002415664599688129</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -836,10 +839,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1732</v>
+        <v>1877</v>
       </c>
       <c r="C33">
-        <v>0.002043896573169019</v>
+        <v>0.001522055204301651</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -847,10 +850,21 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>223</v>
+        <v>836</v>
       </c>
       <c r="C34">
-        <v>0.0002631575841897756</v>
+        <v>0.0006779105758104316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>307</v>
+      </c>
+      <c r="C35">
+        <v>0.0002489456301122039</v>
       </c>
     </row>
   </sheetData>

--- a/cp1/tostogan_fb-01_novak_fb-01_cp1/letters2.xlsx
+++ b/cp1/tostogan_fb-01_novak_fb-01_cp1/letters2.xlsx
@@ -498,10 +498,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>205592</v>
+        <v>205591</v>
       </c>
       <c r="C2">
-        <v>0.166714104189017</v>
+        <v>0.166714915556334</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -512,7 +512,7 @@
         <v>115667</v>
       </c>
       <c r="C3">
-        <v>0.09379411790940811</v>
+        <v>0.09379503060763597</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -520,10 +520,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>91838</v>
+        <v>91837</v>
       </c>
       <c r="C4">
-        <v>0.07447123380535696</v>
+        <v>0.07447114756943178</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -531,10 +531,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>81731</v>
+        <v>81729</v>
       </c>
       <c r="C5">
-        <v>0.06627548955928514</v>
+        <v>0.06627451266594171</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -545,7 +545,7 @@
         <v>68872</v>
       </c>
       <c r="C6">
-        <v>0.05584815451820101</v>
+        <v>0.05584869796924884</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -556,7 +556,7 @@
         <v>65574</v>
       </c>
       <c r="C7">
-        <v>0.05317381351458522</v>
+        <v>0.0531743309419724</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -564,10 +564,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>64769</v>
+        <v>64768</v>
       </c>
       <c r="C8">
-        <v>0.05252104077113139</v>
+        <v>0.05252074094076415</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -575,10 +575,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>54653</v>
+        <v>54652</v>
       </c>
       <c r="C9">
-        <v>0.04431799844469798</v>
+        <v>0.04431761879160453</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -586,10 +586,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>48418</v>
+        <v>48417</v>
       </c>
       <c r="C10">
-        <v>0.03926205054974818</v>
+        <v>0.03926162169789059</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -600,7 +600,7 @@
         <v>47693</v>
       </c>
       <c r="C11">
-        <v>0.03867414963173076</v>
+        <v>0.03867452596479534</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -608,10 +608,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>40108</v>
+        <v>40107</v>
       </c>
       <c r="C12">
-        <v>0.03252348968254162</v>
+        <v>0.03252299525863432</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -622,7 +622,7 @@
         <v>33391</v>
       </c>
       <c r="C13">
-        <v>0.02707668903933746</v>
+        <v>0.02707695251903804</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -633,7 +633,7 @@
         <v>32127</v>
       </c>
       <c r="C14">
-        <v>0.02605171419744227</v>
+        <v>0.02605196770324743</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -644,7 +644,7 @@
         <v>31566</v>
       </c>
       <c r="C15">
-        <v>0.02559680052156948</v>
+        <v>0.02559704960066948</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -652,10 +652,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>27828</v>
+        <v>27827</v>
       </c>
       <c r="C16">
-        <v>0.02256566447805346</v>
+        <v>0.02256507315585851</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -666,7 +666,7 @@
         <v>26970</v>
       </c>
       <c r="C17">
-        <v>0.02186991415024801</v>
+        <v>0.02187012696350681</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -674,10 +674,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>24528</v>
+        <v>24527</v>
       </c>
       <c r="C18">
-        <v>0.01988970167880175</v>
+        <v>0.01988908431716468</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -685,10 +685,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>23157</v>
+        <v>23156</v>
       </c>
       <c r="C19">
-        <v>0.01877796077038536</v>
+        <v>0.0187773325905437</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -696,10 +696,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>19631</v>
+        <v>19630</v>
       </c>
       <c r="C20">
-        <v>0.01591873506427582</v>
+        <v>0.01591807906168479</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -710,7 +710,7 @@
         <v>19295</v>
       </c>
       <c r="C21">
-        <v>0.01564627339744291</v>
+        <v>0.01564642564927193</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -721,7 +721,7 @@
         <v>17831</v>
       </c>
       <c r="C22">
-        <v>0.0144591189919567</v>
+        <v>0.0144592596917423</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -732,7 +732,7 @@
         <v>17825</v>
       </c>
       <c r="C23">
-        <v>0.01445425360504897</v>
+        <v>0.01445439425749013</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -743,7 +743,7 @@
         <v>17200</v>
       </c>
       <c r="C24">
-        <v>0.01394744246882706</v>
+        <v>0.0139475781895557</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -754,7 +754,7 @@
         <v>12116</v>
       </c>
       <c r="C25">
-        <v>0.009824837962343527</v>
+        <v>0.009824933566549815</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -765,7 +765,7 @@
         <v>10105</v>
       </c>
       <c r="C26">
-        <v>0.008194122450435899</v>
+        <v>0.008194202186363972</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -776,7 +776,7 @@
         <v>8395</v>
       </c>
       <c r="C27">
-        <v>0.006807487181732743</v>
+        <v>0.006807553424495353</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -787,7 +787,7 @@
         <v>7477</v>
       </c>
       <c r="C28">
-        <v>0.006063082984849996</v>
+        <v>0.006063141983913252</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -798,7 +798,7 @@
         <v>6147</v>
       </c>
       <c r="C29">
-        <v>0.004984588886969764</v>
+        <v>0.004984637391348771</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -809,7 +809,7 @@
         <v>3674</v>
       </c>
       <c r="C30">
-        <v>0.002979238583166897</v>
+        <v>0.002979267573745792</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -820,7 +820,7 @@
         <v>3024</v>
       </c>
       <c r="C31">
-        <v>0.002452155001496106</v>
+        <v>0.002452178863093978</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -831,7 +831,7 @@
         <v>2979</v>
       </c>
       <c r="C32">
-        <v>0.002415664599688129</v>
+        <v>0.002415688106202699</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -842,7 +842,7 @@
         <v>1877</v>
       </c>
       <c r="C33">
-        <v>0.001522055204301651</v>
+        <v>0.0015220700152207</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -853,7 +853,7 @@
         <v>836</v>
       </c>
       <c r="C34">
-        <v>0.0006779105758104316</v>
+        <v>0.0006779171724691025</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -864,7 +864,7 @@
         <v>307</v>
       </c>
       <c r="C35">
-        <v>0.0002489456301122039</v>
+        <v>0.0002489480525693953</v>
       </c>
     </row>
   </sheetData>
